--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1121759907178599</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606258066803008</v>
+        <v>-1.60301716143225</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0420553157523122</v>
+        <v>-0.04272112584062239</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1501998735003973</v>
+        <v>-0.1433607604183458</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1042969556083471</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.589101258380831</v>
+        <v>-1.583858200687778</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07167205953870594</v>
+        <v>-0.07405512448835519</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1247259480412669</v>
+        <v>-0.1166575260254796</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1080618481789738</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.637543270857981</v>
+        <v>-1.632892044354537</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1193365065699334</v>
+        <v>-0.1219588224260203</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1196953829295899</v>
+        <v>-0.1124312846847872</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1255090907133624</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.731320969076394</v>
+        <v>-1.727492954573391</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1467921221027813</v>
+        <v>-0.1483519750519902</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.130908695149736</v>
+        <v>-0.1230385995432326</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1474170726831233</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760213664066989</v>
+        <v>-1.760753552625595</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1089841828091387</v>
+        <v>-0.1087622461130354</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1206775708612816</v>
+        <v>-0.1134748593622096</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1621208266617773</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.618968271207511</v>
+        <v>-1.622182418253207</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04446199098878095</v>
+        <v>-0.04436597582238161</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1211450545403079</v>
+        <v>-0.1148474040359838</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.158315030995484</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.3323685085724</v>
+        <v>-1.33152168628514</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006757936957144278</v>
+        <v>-0.01075909356349063</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1172210248709052</v>
+        <v>-0.1088976117574672</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1290675697465677</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.913893488906914</v>
+        <v>-0.908917227454922</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002490771119298113</v>
+        <v>-0.01336881726660717</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07711659167928502</v>
+        <v>-0.06880262268057478</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06895350005446821</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3914135817823637</v>
+        <v>-0.3793361330646236</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04702921617562238</v>
+        <v>-0.06216970610341369</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02950251325993922</v>
+        <v>-0.0219236111908764</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0263303770713912</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1697572893628788</v>
+        <v>0.1886108903978184</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1021513658035725</v>
+        <v>-0.1247983529208468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05256684372467865</v>
+        <v>0.06124441114040934</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1543052236177749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8448257581445603</v>
+        <v>0.8703846806362409</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2276117079050864</v>
+        <v>-0.255918867782558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.131911573610325</v>
+        <v>0.1409653315960466</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3070963670023066</v>
       </c>
       <c r="E13" t="n">
-        <v>1.534867870827175</v>
+        <v>1.567173039272751</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4292341132289767</v>
+        <v>-0.4637680927503138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2505060443047253</v>
+        <v>0.2593063852119175</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4702778405477573</v>
       </c>
       <c r="E14" t="n">
-        <v>2.255203555518344</v>
+        <v>2.293918129825855</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.658631659967339</v>
+        <v>-0.6965513546185937</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3702558450341604</v>
+        <v>0.380560948221316</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6261463716368515</v>
       </c>
       <c r="E15" t="n">
-        <v>2.98441985609189</v>
+        <v>3.028495539526552</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.903742639593646</v>
+        <v>-0.9460506995550871</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4820237947994796</v>
+        <v>0.4924579675545819</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7596936206139635</v>
       </c>
       <c r="E16" t="n">
-        <v>3.604915507918955</v>
+        <v>3.648722034083875</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.182193705237784</v>
+        <v>-1.234280358990305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6248314016368484</v>
+        <v>0.6404897438555477</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8739981628793784</v>
       </c>
       <c r="E17" t="n">
-        <v>4.196779751929562</v>
+        <v>4.243690243801685</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.432385618587649</v>
+        <v>-1.491604939988345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7737603688369555</v>
+        <v>0.7906039474539942</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9848388471572244</v>
       </c>
       <c r="E18" t="n">
-        <v>4.725881557497424</v>
+        <v>4.771537556129871</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.672029242796118</v>
+        <v>-1.733733940389348</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9089371309742587</v>
+        <v>0.9288689351072893</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.099103455838344</v>
       </c>
       <c r="E19" t="n">
-        <v>5.155203142927792</v>
+        <v>5.201786238822686</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.957594087858974</v>
+        <v>-2.025884481455726</v>
       </c>
       <c r="G19" t="n">
-        <v>1.053325053009413</v>
+        <v>1.074053310817822</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.2132759109053</v>
       </c>
       <c r="E20" t="n">
-        <v>5.492638214113992</v>
+        <v>5.539978413206231</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.209933750299855</v>
+        <v>-2.280587533607239</v>
       </c>
       <c r="G20" t="n">
-        <v>1.204016921625377</v>
+        <v>1.225291364068877</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.317277240581515</v>
       </c>
       <c r="E21" t="n">
-        <v>5.777285406029129</v>
+        <v>5.824422556654721</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.430752105817567</v>
+        <v>-2.504354026939148</v>
       </c>
       <c r="G21" t="n">
-        <v>1.341572026654966</v>
+        <v>1.361590401839668</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.406676753709136</v>
       </c>
       <c r="E22" t="n">
-        <v>5.984531781673427</v>
+        <v>6.029306329597946</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.636178915357641</v>
+        <v>-2.709276363350845</v>
       </c>
       <c r="G22" t="n">
-        <v>1.456297558349209</v>
+        <v>1.477498021894008</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.481071283420704</v>
       </c>
       <c r="E23" t="n">
-        <v>6.122304101341755</v>
+        <v>6.170606026117109</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.757789206688454</v>
+        <v>-2.828515394875418</v>
       </c>
       <c r="G23" t="n">
-        <v>1.555630757056253</v>
+        <v>1.576911495576238</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.538157773134945</v>
       </c>
       <c r="E24" t="n">
-        <v>6.225669937037571</v>
+        <v>6.275360146677913</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.833132779967754</v>
+        <v>-2.900111228626901</v>
       </c>
       <c r="G24" t="n">
-        <v>1.603433717770155</v>
+        <v>1.624243824572871</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.573868051108774</v>
       </c>
       <c r="E25" t="n">
-        <v>6.243448483012663</v>
+        <v>6.292249371849469</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.911056957596426</v>
+        <v>-2.978375394385775</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655628191832485</v>
+        <v>1.673560991681464</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.584858193813393</v>
       </c>
       <c r="E26" t="n">
-        <v>6.232765615236395</v>
+        <v>6.27961629438191</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.973149650903057</v>
+        <v>-3.039415068900255</v>
       </c>
       <c r="G26" t="n">
-        <v>1.674214209616804</v>
+        <v>1.692091918796537</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.570279322661039</v>
       </c>
       <c r="E27" t="n">
-        <v>6.137129787445286</v>
+        <v>6.182140438238</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.988422358437037</v>
+        <v>-3.053077554873145</v>
       </c>
       <c r="G27" t="n">
-        <v>1.680854996289572</v>
+        <v>1.698323460497767</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.531028729886038</v>
       </c>
       <c r="E28" t="n">
-        <v>5.974681570012327</v>
+        <v>6.016043644481867</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.998769173130907</v>
+        <v>-3.06344247078691</v>
       </c>
       <c r="G28" t="n">
-        <v>1.667296395578687</v>
+        <v>1.683474164107416</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.469054680236301</v>
       </c>
       <c r="E29" t="n">
-        <v>5.805354889019284</v>
+        <v>5.843860118783663</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.957208772252084</v>
+        <v>-3.018897729654101</v>
       </c>
       <c r="G29" t="n">
-        <v>1.630407683451885</v>
+        <v>1.646336756959447</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.389357668150216</v>
       </c>
       <c r="E30" t="n">
-        <v>5.613927405544058</v>
+        <v>5.649070530465339</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.930043563247116</v>
+        <v>-2.988975626158174</v>
       </c>
       <c r="G30" t="n">
-        <v>1.561517588569917</v>
+        <v>1.575784497885387</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.297090721239615</v>
       </c>
       <c r="E31" t="n">
-        <v>5.375753128185324</v>
+        <v>5.408007928019018</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.831931803378201</v>
+        <v>-2.88587816072254</v>
       </c>
       <c r="G31" t="n">
-        <v>1.486976765042481</v>
+        <v>1.501045347948666</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.197563802220388</v>
       </c>
       <c r="E32" t="n">
-        <v>5.144098438027016</v>
+        <v>5.176724706373337</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.770053176672068</v>
+        <v>-2.824555949775787</v>
       </c>
       <c r="G32" t="n">
-        <v>1.413942277814129</v>
+        <v>1.427636244169445</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.096764217388897</v>
       </c>
       <c r="E33" t="n">
-        <v>4.850230642099299</v>
+        <v>4.881328537878837</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.647650366713681</v>
+        <v>-2.698614744832715</v>
       </c>
       <c r="G33" t="n">
-        <v>1.340745666616283</v>
+        <v>1.35292857461515</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9985187520240059</v>
       </c>
       <c r="E34" t="n">
-        <v>4.592195391467992</v>
+        <v>4.618849831268098</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.57161579904013</v>
+        <v>-2.621748308053557</v>
       </c>
       <c r="G34" t="n">
-        <v>1.240331116772905</v>
+        <v>1.252133112144418</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9062535896977484</v>
       </c>
       <c r="E35" t="n">
-        <v>4.280613584349157</v>
+        <v>4.302081631144578</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.499387996611445</v>
+        <v>-2.546523573217915</v>
       </c>
       <c r="G35" t="n">
-        <v>1.148830237213454</v>
+        <v>1.160386685602043</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8191432902376415</v>
       </c>
       <c r="E36" t="n">
-        <v>3.942349005086033</v>
+        <v>3.962109241134842</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.404020539080518</v>
+        <v>-2.449357798840902</v>
       </c>
       <c r="G36" t="n">
-        <v>1.070782499083759</v>
+        <v>1.078776942200846</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7361865499786155</v>
       </c>
       <c r="E37" t="n">
-        <v>3.659955808552598</v>
+        <v>3.678252206818597</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.33583166971709</v>
+        <v>-2.379891612960539</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9837581299052869</v>
+        <v>0.9926324497111801</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6558048867268437</v>
       </c>
       <c r="E38" t="n">
-        <v>3.362979324860312</v>
+        <v>3.374982794679351</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.268388885417159</v>
+        <v>-2.311859358499681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8952038141409101</v>
+        <v>0.9023105104735828</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5765247772511962</v>
       </c>
       <c r="E39" t="n">
-        <v>3.046409451146075</v>
+        <v>3.055324695449122</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.192061550187046</v>
+        <v>-2.232483148231608</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8076127980787695</v>
+        <v>0.8133784301200939</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4989808137669409</v>
       </c>
       <c r="E40" t="n">
-        <v>2.765598143829547</v>
+        <v>2.777112093701862</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117818216273535</v>
+        <v>-2.159164550551862</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7411703029304249</v>
+        <v>0.7459081004855399</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4223739942852717</v>
       </c>
       <c r="E41" t="n">
-        <v>2.469518851036403</v>
+        <v>2.479203790689766</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.059327665726002</v>
+        <v>-2.097535405876454</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6837862878251657</v>
+        <v>0.6868288667866399</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3487528291507018</v>
       </c>
       <c r="E42" t="n">
-        <v>2.19521296474821</v>
+        <v>2.201655425011694</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.975066487114972</v>
+        <v>-2.010695196935174</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6128452460281437</v>
+        <v>0.6140383525220896</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2789650980222458</v>
       </c>
       <c r="E43" t="n">
-        <v>1.943133802471905</v>
+        <v>1.948759346811434</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.911553241551368</v>
+        <v>-1.947850122488562</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5418365214089057</v>
+        <v>0.5444619853032353</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2148965587977383</v>
       </c>
       <c r="E44" t="n">
-        <v>1.740535505292808</v>
+        <v>1.747292769380552</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.860550299963862</v>
+        <v>-1.895215710081828</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4750996846848779</v>
+        <v>0.4778652362810032</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1576202716653445</v>
       </c>
       <c r="E45" t="n">
-        <v>1.530194608056034</v>
+        <v>1.533035712569981</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.775709095306634</v>
+        <v>-1.809799201435764</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4245768189293684</v>
+        <v>0.4270700652175087</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1062905312345681</v>
       </c>
       <c r="E46" t="n">
-        <v>1.333387127224202</v>
+        <v>1.337817991050664</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.716895870839234</v>
+        <v>-1.749656717820425</v>
       </c>
       <c r="G46" t="n">
-        <v>0.373855626764575</v>
+        <v>0.3740130286767051</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.06087470121942867</v>
       </c>
       <c r="E47" t="n">
-        <v>1.179800637444166</v>
+        <v>1.182432397414981</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.685897138264338</v>
+        <v>-1.717844217359817</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3248265051551799</v>
+        <v>0.3273701200552018</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0195899264414283</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004075568723036</v>
+        <v>1.004758693021681</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.6230685910185</v>
+        <v>-1.655377694511878</v>
       </c>
       <c r="G48" t="n">
-        <v>0.254639418517261</v>
+        <v>0.2561189964912836</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.01833923143079554</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8576083674286432</v>
+        <v>0.8584882441174503</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.572735394567107</v>
+        <v>-1.605228658297678</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2201101610532878</v>
+        <v>0.2212292886485326</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0540590282828697</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7579147183428215</v>
+        <v>0.7587174680946849</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.520917111074767</v>
+        <v>-1.555151239953496</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1779264486024293</v>
+        <v>0.1793950084426029</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08812003861850599</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6430947455013003</v>
+        <v>0.6432804797576138</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.483412957471535</v>
+        <v>-1.518230260434707</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1437497714216275</v>
+        <v>0.1454890625506647</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1202924777292984</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5343300242194228</v>
+        <v>0.5368232705075631</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.440128218645327</v>
+        <v>-1.473680797244533</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1053720372060741</v>
+        <v>0.1056742488773638</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1507779335296573</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4643129316466043</v>
+        <v>0.4695166388616243</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.401335730391311</v>
+        <v>-1.432570565834402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07282289579669719</v>
+        <v>0.07407109295988865</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1785953185500693</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3712301628702455</v>
+        <v>0.3800147635862246</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.34799064835131</v>
+        <v>-1.382271210794117</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04247423311889863</v>
+        <v>0.04265367129872692</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2038607242738496</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2795750294369064</v>
+        <v>0.2913864689231468</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.316423694873624</v>
+        <v>-1.350476024543843</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008905127318918868</v>
+        <v>0.007598691448239296</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2263929316617982</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214536559344762</v>
+        <v>0.2280951600556461</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.296190466078865</v>
+        <v>-1.330049978406724</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009230720996707659</v>
+        <v>-0.008964711765207842</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2462803008458409</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1383902363135986</v>
+        <v>0.1523942844358109</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.303292440354173</v>
+        <v>-1.336944969167582</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04508530256081603</v>
+        <v>-0.04501132366211489</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2638760792133314</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07462829572882909</v>
+        <v>0.08914390006546404</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.284346759200637</v>
+        <v>-1.316226155473901</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07547803777401101</v>
+        <v>-0.0747917654371239</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2787775125185957</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03634185462231115</v>
+        <v>0.05284544510914887</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.294202479928662</v>
+        <v>-1.326532045670617</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09999810764563312</v>
+        <v>-0.1000610684104851</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.291426764870204</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.0193894404055823</v>
+        <v>0.0006997656395783813</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.299376280780377</v>
+        <v>-1.329776886089179</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.105357642753662</v>
+        <v>-0.1043754548219703</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3022212771295089</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0587540846101912</v>
+        <v>-0.0367886477724401</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.279973347072104</v>
+        <v>-1.309638885451258</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1362430459518241</v>
+        <v>-0.1355300152898749</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3119643009357041</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1130955207539761</v>
+        <v>-0.09088768497154474</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.304212454530573</v>
+        <v>-1.334706713977092</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1442264709350611</v>
+        <v>-0.1427453189419172</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3213271521451309</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1571491679209398</v>
+        <v>-0.1329391798162139</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.34334414390523</v>
+        <v>-1.375004751520633</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1626031441762467</v>
+        <v>-0.1619105757628744</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3310863653117996</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2142734698711843</v>
+        <v>-0.1860214006629583</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.383960920320833</v>
+        <v>-1.417020043925512</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1791240488734187</v>
+        <v>-0.1773690175531684</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3418596330030006</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2689832264893537</v>
+        <v>-0.2378365361170557</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.416771348904346</v>
+        <v>-1.449653395357878</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2042989106995019</v>
+        <v>-0.2028287768402071</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3535747746597003</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.334989718341098</v>
+        <v>-0.3045466145160214</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.459901833856667</v>
+        <v>-1.490976906358946</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.210513138190397</v>
+        <v>-0.2083693241471855</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.366063405769425</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3243430530046201</v>
+        <v>-0.2907204305545162</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.506599833147416</v>
+        <v>-1.537091731565253</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2437674401661167</v>
+        <v>-0.2414111335415295</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3787984331024157</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3493841232053928</v>
+        <v>-0.3195218324360761</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.535985983132539</v>
+        <v>-1.569497637234591</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2539371777088404</v>
+        <v>-0.2517917896465076</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3907855717570077</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3774441620808202</v>
+        <v>-0.3479800981491926</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.594320705787064</v>
+        <v>-1.62949452408121</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2591928275548634</v>
+        <v>-0.2587221958375945</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4012608935148385</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4035949157621098</v>
+        <v>-0.3745448188593843</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.612889409361048</v>
+        <v>-1.646922850801811</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2695420032774154</v>
+        <v>-0.2691532205544541</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4093988391459849</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4091937017765763</v>
+        <v>-0.3824715791542546</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.649661644072875</v>
+        <v>-1.686381936153698</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2878399755625359</v>
+        <v>-0.2880272838379707</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4147820964404205</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4067901745783501</v>
+        <v>-0.3811824574939093</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.681937693164706</v>
+        <v>-1.719670866550087</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2851798832475377</v>
+        <v>-0.2855639439131351</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.416851413684816</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3663992699066532</v>
+        <v>-0.3430030496876398</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.707650082520713</v>
+        <v>-1.743304763656417</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2866059445714362</v>
+        <v>-0.2885372660332721</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4150729737010235</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3250733978769036</v>
+        <v>-0.3012474704377752</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.740093764648963</v>
+        <v>-1.776208059368086</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2915641048035333</v>
+        <v>-0.2934025591372125</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4090928631337267</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2601482571614929</v>
+        <v>-0.2391114916053092</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.759351888598077</v>
+        <v>-1.794816113420103</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2943926171645107</v>
+        <v>-0.2979813807610762</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3985344886414468</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.152235080224239</v>
+        <v>-0.1317980159532709</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.767622572070952</v>
+        <v>-1.802675977902318</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2768029534839755</v>
+        <v>-0.2814966785036941</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3832191926522894</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06467554454452439</v>
+        <v>-0.04651923398032095</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.753937262820803</v>
+        <v>-1.78895525322194</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.262792609285278</v>
+        <v>-0.2681112198961531</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3629329777639297</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07174626671772752</v>
+        <v>0.08822309887950312</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.757913235121208</v>
+        <v>-1.792684891529862</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2340699083597831</v>
+        <v>-0.2413859492355887</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3376208597602494</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1995818036732842</v>
+        <v>0.2159862309554799</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.786876760972262</v>
+        <v>-1.820796086026731</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.217857511410386</v>
+        <v>-0.2245644068862483</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3077223479460262</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3457688295640856</v>
+        <v>0.363186925160399</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.745757872456964</v>
+        <v>-1.775757102889834</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1911385368263069</v>
+        <v>-0.1986072575568786</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2734556210295438</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4768531419860069</v>
+        <v>0.4924768557840375</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.726221147123379</v>
+        <v>-1.753066830246723</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1628896156563234</v>
+        <v>-0.1696626199352803</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2356216283785944</v>
       </c>
       <c r="E82" t="n">
-        <v>0.653588730983012</v>
+        <v>0.6725776976623835</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.688431309049632</v>
+        <v>-1.712526393758503</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1372567142659417</v>
+        <v>-0.1434536275465025</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1945560446850091</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8282450407207789</v>
+        <v>0.8446400238882469</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.621271848191535</v>
+        <v>-1.641412996867698</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1169927920983166</v>
+        <v>-0.1260733084091003</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.15147157623872</v>
       </c>
       <c r="E84" t="n">
-        <v>1.008604021735018</v>
+        <v>1.02775039032652</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.544147272276483</v>
+        <v>-1.559543540311486</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1005883648161209</v>
+        <v>-0.1103598755211555</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1079361336506715</v>
       </c>
       <c r="E85" t="n">
-        <v>1.154087461078598</v>
+        <v>1.175530323568077</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.439783508457762</v>
+        <v>-1.454920850347311</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07936743902274501</v>
+        <v>-0.09131424415341723</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06558988698739096</v>
       </c>
       <c r="E86" t="n">
-        <v>1.316949645540459</v>
+        <v>1.336454890491617</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.324755765092229</v>
+        <v>-1.336941821129339</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04924071304104984</v>
+        <v>-0.0612646451086658</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02671727652535797</v>
       </c>
       <c r="E87" t="n">
-        <v>1.456025253041224</v>
+        <v>1.478543170590552</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.195689345183816</v>
+        <v>-1.205610387705374</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02492369163607552</v>
+        <v>-0.0377110229775223</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.006207660423084115</v>
       </c>
       <c r="E88" t="n">
-        <v>1.54899626645997</v>
+        <v>1.56712424467999</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.051731130368776</v>
+        <v>-1.058449043978487</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01118250470712051</v>
+        <v>-0.02341892935611206</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0297055316361638</v>
       </c>
       <c r="E89" t="n">
-        <v>1.653202628366561</v>
+        <v>1.672810184560604</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.908917227454922</v>
+        <v>-0.9108729462131381</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01344145042650745</v>
+        <v>0.0005801401863595291</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04031929310032651</v>
       </c>
       <c r="E90" t="n">
-        <v>1.697508118592933</v>
+        <v>1.716168115275952</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.721014759801849</v>
+        <v>-0.71762747065281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01570961198030174</v>
+        <v>0.001249098312912321</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03427589020880634</v>
       </c>
       <c r="E91" t="n">
-        <v>1.717882222099049</v>
+        <v>1.731634427161853</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5365098124221037</v>
+        <v>-0.5322819970622901</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.003517031586386161</v>
+        <v>-0.01604307575369704</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.009506625851976399</v>
       </c>
       <c r="E92" t="n">
-        <v>1.691371018038981</v>
+        <v>1.703413838336053</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3738616945607398</v>
+        <v>-0.3675892283623565</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.00625897289569196</v>
+        <v>-0.01926666691412084</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03325656781148303</v>
       </c>
       <c r="E93" t="n">
-        <v>1.649338411423768</v>
+        <v>1.658908447681276</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2218602420358537</v>
+        <v>-0.2148590049843082</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02278774768847048</v>
+        <v>-0.03349265173243646</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08939108693813076</v>
       </c>
       <c r="E94" t="n">
-        <v>1.552309576710308</v>
+        <v>1.559192762327756</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08443892863157582</v>
+        <v>-0.07563701370526238</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02873596594786578</v>
+        <v>-0.04019639917005609</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1518619656957993</v>
       </c>
       <c r="E95" t="n">
-        <v>1.482457756145226</v>
+        <v>1.489860368072703</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02254242898586803</v>
+        <v>0.03101537391582963</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06486285281995917</v>
+        <v>-0.07482009778130731</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2124272307504237</v>
       </c>
       <c r="E96" t="n">
-        <v>1.39901113242947</v>
+        <v>1.405173417289363</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1038420906201698</v>
+        <v>0.1136183233825684</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0939900766596284</v>
+        <v>-0.1037600133455418</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2626948520867433</v>
       </c>
       <c r="E97" t="n">
-        <v>1.319945003928294</v>
+        <v>1.324693819617258</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1673222817822266</v>
+        <v>0.1768199131601549</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.113053022237701</v>
+        <v>-0.1239153281937971</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2998933119754247</v>
       </c>
       <c r="E98" t="n">
-        <v>1.224339082500491</v>
+        <v>1.23058321635469</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1996935590308965</v>
+        <v>0.2102835596790076</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1342660779354704</v>
+        <v>-0.1441902684952712</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3242761678528061</v>
       </c>
       <c r="E99" t="n">
-        <v>1.137797937192257</v>
+        <v>1.145088793762122</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2213473400826301</v>
+        <v>0.230800898925162</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1368946898680425</v>
+        <v>-0.1465025025844619</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3430762138983752</v>
       </c>
       <c r="E100" t="n">
-        <v>1.050014890797318</v>
+        <v>1.056663547565692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2333004412897875</v>
+        <v>0.2427980726677159</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1514071461664349</v>
+        <v>-0.1609409799841532</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3597325288193663</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9598078549555755</v>
+        <v>0.9661668922056303</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2258332945783371</v>
+        <v>0.238401837261923</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1647233479326387</v>
+        <v>-0.175074097674312</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3818352260504617</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8995307927053657</v>
+        <v>0.9046447808304717</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2323198273772172</v>
+        <v>0.244301260928558</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1897250676553788</v>
+        <v>-0.2011052259023828</v>
       </c>
     </row>
   </sheetData>
